--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/modifyMobile/modifyMobileByRealName.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/modifyMobile/modifyMobileByRealName.xlsx
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pictureVerification</t>
   </si>
   <si>
@@ -81,10 +77,6 @@
   </si>
   <si>
     <t>environment</t>
-  </si>
-  <si>
-    <t>sit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8888</t>
@@ -138,6 +130,14 @@
   </si>
   <si>
     <t>韩诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${EnvUtils.getEnv()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${MobileUtil.getUnRegisterMobile()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,15 +490,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
@@ -513,37 +513,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -557,37 +557,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
